--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -635,27 +635,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 9148-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 9148-2020.xlsx", "A 9148-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 9148-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 9148-2020.png", "A 9148-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 9148-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 9148-2020.docx", "A 9148-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 9148-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 9148-2020.docx", "A 9148-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 9148-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 9148-2020.docx", "A 9148-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 9148-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 9148-2020.docx", "A 9148-2020")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,27 +729,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 25533-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 25533-2023.xlsx", "A 25533-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 25533-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 25533-2023.png", "A 25533-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 25533-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 25533-2023.docx", "A 25533-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 25533-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 25533-2023.docx", "A 25533-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 25533-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 25533-2023.docx", "A 25533-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 25533-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 25533-2023.docx", "A 25533-2023")</f>
         <v/>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -821,27 +821,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 35421-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 35421-2023.xlsx", "A 35421-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 35421-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 35421-2023.png", "A 35421-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 35421-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 35421-2023.docx", "A 35421-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 35421-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 35421-2023.docx", "A 35421-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 35421-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 35421-2023.docx", "A 35421-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 35421-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 35421-2023.docx", "A 35421-2023")</f>
         <v/>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,27 +912,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 61302-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 61302-2022.xlsx", "A 61302-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 61302-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 61302-2022.png", "A 61302-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 61302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 61302-2022.docx", "A 61302-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 61302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 61302-2022.docx", "A 61302-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 61302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 61302-2022.docx", "A 61302-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 61302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 61302-2022.docx", "A 61302-2022")</f>
         <v/>
       </c>
     </row>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,27 +1003,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 2992-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 2992-2023.xlsx", "A 2992-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 2992-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 2992-2023.png", "A 2992-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 2992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 2992-2023.docx", "A 2992-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 2992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 2992-2023.docx", "A 2992-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 2992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 2992-2023.docx", "A 2992-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 2992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 2992-2023.docx", "A 2992-2023")</f>
         <v/>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,27 +1088,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 52009-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 52009-2019.xlsx", "A 52009-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 52009-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 52009-2019.png", "A 52009-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 52009-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 52009-2019.docx", "A 52009-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 52009-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 52009-2019.docx", "A 52009-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 52009-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 52009-2019.docx", "A 52009-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 52009-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 52009-2019.docx", "A 52009-2019")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,27 +1178,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 41774-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 41774-2020.xlsx", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 41774-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 41774-2020.png", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 41774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 41774-2020.docx", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 41774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 41774-2020.docx", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 41774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 41774-2020.docx", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 41774-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 41774-2020.docx", "A 41774-2020")</f>
         <v/>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,27 +1268,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 2987-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 2987-2023.xlsx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 2987-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 2987-2023.png", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 2987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 2987-2023.docx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 2987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 2987-2023.docx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 2987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 2987-2023.docx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 2987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 2987-2023.docx", "A 2987-2023")</f>
         <v/>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,27 +1358,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 23823-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 23823-2023.xlsx", "A 23823-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 23823-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 23823-2023.png", "A 23823-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 23823-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 23823-2023.docx", "A 23823-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 23823-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 23823-2023.docx", "A 23823-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 23823-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 23823-2023.docx", "A 23823-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 23823-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 23823-2023.docx", "A 23823-2023")</f>
         <v/>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44945</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,14 +1115,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 41774-2020</t>
+          <t>A 16917-2020</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44074</v>
+        <v>43921</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1134,16 +1134,11 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>23.8</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1174,45 +1169,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 41774-2020.xlsx", "A 41774-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 16917-2020.xlsx", "A 16917-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 41774-2020.png", "A 41774-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 16917-2020.png", "A 16917-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 41774-2020.docx", "A 41774-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 16917-2020.docx", "A 16917-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 41774-2020.docx", "A 41774-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 16917-2020.docx", "A 16917-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 41774-2020.docx", "A 41774-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 16917-2020.docx", "A 16917-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 41774-2020.docx", "A 41774-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 16917-2020.docx", "A 16917-2020")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 2987-2023</t>
+          <t>A 41774-2020</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44945</v>
+        <v>44074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1230,7 +1225,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,41 +1263,41 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 2987-2023.xlsx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 41774-2020.xlsx", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 2987-2023.png", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 41774-2020.png", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 2987-2023.docx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 41774-2020.docx", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 2987-2023.docx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 41774-2020.docx", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 2987-2023.docx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 41774-2020.docx", "A 41774-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 2987-2023.docx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 41774-2020.docx", "A 41774-2020")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23823-2023</t>
+          <t>A 2987-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45078</v>
+        <v>44945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1320,17 +1315,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1344,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1354,45 +1349,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 23823-2023.xlsx", "A 23823-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 2987-2023.xlsx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 23823-2023.png", "A 23823-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 2987-2023.png", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 23823-2023.docx", "A 23823-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 2987-2023.docx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 23823-2023.docx", "A 23823-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 2987-2023.docx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 23823-2023.docx", "A 23823-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 2987-2023.docx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 23823-2023.docx", "A 23823-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 2987-2023.docx", "A 2987-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 59368-2018</t>
+          <t>A 23823-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43418</v>
+        <v>45078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1410,10 +1405,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1440,21 +1435,49 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/artfynd/A 23823-2023.xlsx", "A 23823-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/kartor/A 23823-2023.png", "A 23823-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomål/A 23823-2023.docx", "A 23823-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/klagomålsmail/A 23823-2023.docx", "A 23823-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsyn/A 23823-2023.docx", "A 23823-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALEM/tillsynsmail/A 23823-2023.docx", "A 23823-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 7820-2020</t>
+          <t>A 59368-2018</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43873</v>
+        <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1466,8 +1489,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>7.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1504,14 +1532,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 7812-2020</t>
+          <t>A 7820-2020</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1524,7 +1552,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1561,14 +1589,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 9109-2020</t>
+          <t>A 7812-2020</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43879</v>
+        <v>43873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1580,13 +1608,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1623,14 +1646,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9116-2020</t>
+          <t>A 9109-2020</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1648,7 +1671,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1685,14 +1708,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 16917-2020</t>
+          <t>A 9116-2020</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43921</v>
+        <v>43879</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1704,8 +1727,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>23.8</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1749,7 +1777,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1834,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1896,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1930,7 +1958,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1992,7 +2020,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2049,7 +2077,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2106,7 +2134,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2163,7 +2191,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2220,7 +2248,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2277,7 +2305,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2334,7 +2362,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2424,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2458,7 +2486,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2548,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2610,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2672,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2706,7 +2734,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2796,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2830,7 +2858,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2920,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2982,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3044,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3106,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>43921</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>45078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43879</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>43921</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>45078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43879</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>43921</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>45078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43879</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="R38" s="2" t="inlineStr"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
           <t>A 40711-2023</t>
@@ -3106,7 +3106,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,6 +3157,68 @@
         <v>0</v>
       </c>
       <c r="R39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>A 46919-2023</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SALEM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>43921</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>45078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43879</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45201</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>43921</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>45078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43879</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45201</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>43921</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>45078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43879</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45201</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>45146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>43921</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>45078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43873</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43879</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44075</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44273</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>44357</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44357</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44377</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44529</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44915</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44915</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44930</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>45078</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45078</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>45152</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45201</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
